--- a/预算.xlsx
+++ b/预算.xlsx
@@ -4,27 +4,28 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="一些地址" sheetId="5" r:id="rId1"/>
-    <sheet name="国际机票" sheetId="1" r:id="rId2"/>
-    <sheet name="住宿" sheetId="2" r:id="rId3"/>
-    <sheet name="欧洲交通" sheetId="3" r:id="rId4"/>
-    <sheet name="签证" sheetId="6" r:id="rId5"/>
-    <sheet name="押金" sheetId="7" r:id="rId6"/>
-    <sheet name="总表" sheetId="4" r:id="rId7"/>
+    <sheet name="体验门票等" sheetId="8" r:id="rId2"/>
+    <sheet name="国际机票" sheetId="1" r:id="rId3"/>
+    <sheet name="住宿" sheetId="2" r:id="rId4"/>
+    <sheet name="欧洲交通" sheetId="3" r:id="rId5"/>
+    <sheet name="签证" sheetId="6" r:id="rId6"/>
+    <sheet name="押金" sheetId="7" r:id="rId7"/>
+    <sheet name="总表" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">国际机票!$J$2:$J$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">住宿!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">国际机票!$J$2:$J$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">住宿!$A$1:$G$13</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
   <si>
     <t>航班号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,6 +445,38 @@
     <t>+39338157 2121</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴士底集市观光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.16 11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门票体验项目等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛罗伦萨住宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏林住宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -453,7 +486,7 @@
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,6 +561,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -586,7 +627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -643,6 +684,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -655,16 +699,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1220,6 +1270,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表6" displayName="表6" ref="A1:C27" totalsRowShown="0">
+  <autoFilter ref="A1:C27"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="项目"/>
+    <tableColumn id="2" name="日期"/>
+    <tableColumn id="3" name="价格"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:I6" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:I6"/>
   <tableColumns count="9">
@@ -1237,7 +1299,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:A13" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:A13"/>
   <tableColumns count="1">
@@ -1247,7 +1309,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表7" displayName="表7" ref="A1:I4" totalsRowShown="0">
   <autoFilter ref="A1:I4"/>
   <tableColumns count="9">
@@ -1265,7 +1327,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:B12" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:B12"/>
   <tableColumns count="2">
@@ -1276,7 +1338,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A1:B12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:B12"/>
   <tableColumns count="2">
@@ -1287,7 +1349,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A1:B9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B9"/>
   <tableColumns count="2">
@@ -1576,13 +1638,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.6640625" defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="30.6640625" style="13"/>
+    <col min="1" max="1" width="9.75" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="30.625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>43</v>
       </c>
@@ -1594,7 +1656,7 @@
       </c>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>44</v>
       </c>
@@ -1606,7 +1668,7 @@
       </c>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>44</v>
       </c>
@@ -1618,7 +1680,7 @@
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>44</v>
       </c>
@@ -1628,7 +1690,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>48</v>
       </c>
@@ -1638,7 +1700,7 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
@@ -1648,7 +1710,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>48</v>
       </c>
@@ -1656,7 +1718,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>48</v>
       </c>
@@ -1664,7 +1726,7 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>48</v>
       </c>
@@ -1672,7 +1734,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>48</v>
       </c>
@@ -1680,7 +1742,7 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>48</v>
       </c>
@@ -1688,7 +1750,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>48</v>
       </c>
@@ -1696,7 +1758,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>48</v>
       </c>
@@ -1704,7 +1766,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -1712,7 +1774,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>48</v>
       </c>
@@ -1720,7 +1782,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>48</v>
       </c>
@@ -1728,7 +1790,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>48</v>
       </c>
@@ -1736,7 +1798,7 @@
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>48</v>
       </c>
@@ -1744,7 +1806,7 @@
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>48</v>
       </c>
@@ -1752,7 +1814,7 @@
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>49</v>
       </c>
@@ -1760,7 +1822,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>49</v>
       </c>
@@ -1768,7 +1830,7 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>49</v>
       </c>
@@ -1776,7 +1838,7 @@
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>49</v>
       </c>
@@ -1784,7 +1846,7 @@
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>49</v>
       </c>
@@ -1792,7 +1854,7 @@
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>49</v>
       </c>
@@ -1800,7 +1862,7 @@
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>49</v>
       </c>
@@ -1808,343 +1870,343 @@
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
     </row>
-    <row r="48" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
     </row>
-    <row r="49" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
     </row>
-    <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
     </row>
-    <row r="51" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
     </row>
-    <row r="52" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
     </row>
-    <row r="53" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
     </row>
-    <row r="54" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
     </row>
-    <row r="55" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
     </row>
-    <row r="56" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
     </row>
-    <row r="57" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
     </row>
-    <row r="58" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
     </row>
-    <row r="59" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
     </row>
-    <row r="60" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
     </row>
-    <row r="61" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
     </row>
-    <row r="62" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
     </row>
-    <row r="63" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
     </row>
-    <row r="64" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
     </row>
-    <row r="65" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
     </row>
-    <row r="66" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
     </row>
-    <row r="67" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
     </row>
-    <row r="68" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
     </row>
-    <row r="69" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
     </row>
-    <row r="70" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
     </row>
-    <row r="71" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
     </row>
-    <row r="72" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
     </row>
-    <row r="73" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
     </row>
-    <row r="74" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
     </row>
-    <row r="75" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
     </row>
-    <row r="76" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
     </row>
-    <row r="77" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
     </row>
-    <row r="78" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
     </row>
-    <row r="79" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
     </row>
-    <row r="80" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
     </row>
-    <row r="81" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
     </row>
-    <row r="82" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
     </row>
-    <row r="83" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -2161,6 +2223,157 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="20">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N33"/>
   <sheetViews>
@@ -2168,19 +2381,19 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="5" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
-    <col min="4" max="5" width="10.21875" style="5" customWidth="1"/>
-    <col min="6" max="7" width="17.21875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="24.77734375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="10.25" style="5" customWidth="1"/>
+    <col min="6" max="7" width="17.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="24.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -2216,7 +2429,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
@@ -2245,7 +2458,7 @@
       <c r="I2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="21">
         <v>2679</v>
       </c>
       <c r="K2" s="1"/>
@@ -2253,7 +2466,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="33" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -2282,13 +2495,13 @@
       <c r="I3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="20"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -2317,7 +2530,7 @@
       <c r="I4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="21">
         <v>2796</v>
       </c>
       <c r="K4" s="1"/>
@@ -2325,7 +2538,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="33" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -2354,13 +2567,13 @@
       <c r="I5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="21"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="33" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
@@ -2389,13 +2602,13 @@
       <c r="I6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="21"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2411,7 +2624,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2427,7 +2640,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2443,7 +2656,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2459,7 +2672,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2475,7 +2688,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2491,7 +2704,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2507,7 +2720,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2523,7 +2736,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2539,7 +2752,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2555,7 +2768,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2571,7 +2784,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2587,7 +2800,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2603,7 +2816,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2619,7 +2832,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2635,7 +2848,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2651,7 +2864,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2667,7 +2880,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2683,7 +2896,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2699,7 +2912,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2715,7 +2928,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2731,7 +2944,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2747,7 +2960,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2763,7 +2976,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2779,7 +2992,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2795,7 +3008,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2811,7 +3024,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2846,24 +3059,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="5" customWidth="1"/>
     <col min="4" max="6" width="14" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -2886,121 +3099,121 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>42750</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="23">
         <v>1604</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="23">
         <v>1</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="23">
         <f>E2*F2</f>
         <v>1604</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>42751</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>42752</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>42753</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>42754</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="23">
         <v>890</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="23">
         <v>2</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="23">
         <f>E6*F6</f>
         <v>1780</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>42755</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="23"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>42756</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="23"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>42757</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="23"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>42758</v>
       </c>
@@ -3011,29 +3224,36 @@
       <c r="F10" s="19"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>42759</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="30">
+        <v>1</v>
+      </c>
+      <c r="G11" s="23">
+        <f>E11*F11</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>42760</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>42761</v>
       </c>
@@ -3044,11 +3264,17 @@
       <c r="F13" s="19"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G14" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="D2:D5"/>
@@ -3075,21 +3301,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="49.21875" customWidth="1"/>
+    <col min="3" max="6" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3118,7 +3344,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>89</v>
       </c>
@@ -3147,7 +3373,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>75</v>
       </c>
@@ -3176,7 +3402,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="66" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>78</v>
       </c>
@@ -3214,21 +3440,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="18.125" style="17" customWidth="1"/>
     <col min="2" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>56</v>
       </c>
@@ -3236,20 +3462,23 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="17">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>68</v>
       </c>
@@ -3257,7 +3486,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>69</v>
       </c>
@@ -3265,7 +3494,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>71</v>
       </c>
@@ -3283,17 +3512,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>73</v>
       </c>
@@ -3301,7 +3530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -3309,45 +3538,49 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
     </row>
@@ -3360,23 +3593,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="5" customWidth="1"/>
     <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="48.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>56</v>
       </c>
@@ -3387,7 +3620,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>57</v>
       </c>
@@ -3395,51 +3628,51 @@
         <f>国际机票!J2+国际机票!J4</f>
         <v>5475</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="27">
         <f>SUM(B2:B9)</f>
-        <v>8464.8000000000011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9527.8333333333339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="12">
-        <f>7.32*SUM(欧洲交通!I2:I6)/4</f>
-        <v>713.7</v>
-      </c>
-      <c r="C3" s="25"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <f>7.44*SUM(欧洲交通!I2:I6)/4</f>
+        <v>725.40000000000009</v>
+      </c>
+      <c r="C3" s="28"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="11">
-        <f>SUM(住宿!G2:G13)/4</f>
-        <v>846</v>
-      </c>
-      <c r="C4" s="25"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <f>SUM(住宿!G2:G13)/3</f>
+        <v>1461.3333333333333</v>
+      </c>
+      <c r="C4" s="28"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="12">
         <f>SUM(签证!B2:B14)</f>
-        <v>1127</v>
-      </c>
-      <c r="C5" s="25"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1132</v>
+      </c>
+      <c r="C5" s="28"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="12">
         <v>175</v>
       </c>
-      <c r="C6" s="25"/>
-    </row>
-    <row r="7" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="C6" s="28"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>90</v>
       </c>
@@ -3447,17 +3680,22 @@
         <f>(20+15)*7.32/2</f>
         <v>128.1</v>
       </c>
-      <c r="C7" s="25"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="25"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7" s="28"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="12">
+        <f>SUM(体验门票等!C2:'体验门票等'!C30)</f>
+        <v>431</v>
+      </c>
+      <c r="C8" s="28"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="25"/>
+      <c r="C9" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/预算.xlsx
+++ b/预算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="一些地址" sheetId="5" r:id="rId1"/>
@@ -283,10 +283,6 @@
   <si>
     <t>总预算
 （不含餐，购物）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  +33 684988578</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -442,10 +438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+39338157 2121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,6 +467,14 @@
   </si>
   <si>
     <t>柏林住宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTAWISTRABE 5 BERLIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴士底集市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,6 +687,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -694,6 +697,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -709,12 +715,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1676,7 +1676,7 @@
         <v>47</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="12"/>
     </row>
@@ -1714,7 +1714,9 @@
       <c r="A7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
     </row>
@@ -2226,7 +2228,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2235,132 +2237,132 @@
     <col min="2" max="2" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>96</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" s="20">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2458,7 +2460,7 @@
       <c r="I2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="22">
         <v>2679</v>
       </c>
       <c r="K2" s="1"/>
@@ -2493,9 +2495,9 @@
         <v>1.4305555555547471</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="21"/>
+        <v>64</v>
+      </c>
+      <c r="J3" s="22"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2530,7 +2532,7 @@
       <c r="I4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="22">
         <v>2796</v>
       </c>
       <c r="K4" s="1"/>
@@ -2567,7 +2569,7 @@
       <c r="I5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2602,7 +2604,7 @@
       <c r="I6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="22"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -3064,7 +3066,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3090,10 +3092,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>9</v>
@@ -3103,22 +3105,20 @@
       <c r="A2" s="16">
         <v>42750</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="23">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24">
         <v>1604</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="24">
         <v>1</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="24">
         <f>E2*F2</f>
         <v>1604</v>
       </c>
@@ -3127,55 +3127,53 @@
       <c r="A3" s="16">
         <v>42751</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>42752</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>42753</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>42754</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="D6" s="27"/>
+      <c r="E6" s="24">
         <v>890</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="24">
         <v>2</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="24">
         <f>E6*F6</f>
         <v>1780</v>
       </c>
@@ -3184,34 +3182,34 @@
       <c r="A7" s="16">
         <v>42755</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>42756</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>42757</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
@@ -3228,16 +3226,18 @@
       <c r="A11" s="16">
         <v>42759</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23">
+      <c r="B11" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24">
         <v>1000</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="25">
         <v>1</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="24">
         <f>E11*F11</f>
         <v>1000</v>
       </c>
@@ -3246,12 +3246,12 @@
       <c r="A12" s="16">
         <v>42760</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
@@ -3269,12 +3269,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="D2:D5"/>
@@ -3287,6 +3281,12 @@
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="F6:F9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3306,7 +3306,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3338,18 +3338,18 @@
         <v>16</v>
       </c>
       <c r="H1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s">
         <v>87</v>
-      </c>
-      <c r="I1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3">
         <v>42753.722222222219</v>
@@ -3358,13 +3358,13 @@
         <v>42753.791666666664</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2">
         <v>4</v>
@@ -3375,10 +3375,10 @@
     </row>
     <row r="3" spans="1:9" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3">
         <v>42757.690972222219</v>
@@ -3387,13 +3387,13 @@
         <v>42757.753472222219</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" s="2">
         <v>4</v>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="4" spans="1:9" ht="66" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="3">
         <v>42758.864583333336</v>
@@ -3416,13 +3416,13 @@
         <v>42758.916666666664</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="H4" s="2">
         <v>4</v>
@@ -3444,7 +3444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -3459,12 +3459,12 @@
         <v>56</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="17">
         <v>669</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="17">
         <v>35</v>
@@ -3480,7 +3480,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="17">
         <v>120</v>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="17">
         <v>68</v>
@@ -3496,7 +3496,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="17">
         <v>240</v>
@@ -3524,7 +3524,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
@@ -3532,7 +3532,7 @@
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5">
         <v>500</v>
@@ -3540,19 +3540,19 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" s="5"/>
     </row>
@@ -3598,7 +3598,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3628,9 +3628,9 @@
         <f>国际机票!J2+国际机票!J4</f>
         <v>5475</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="29">
         <f>SUM(B2:B9)</f>
-        <v>9527.8333333333339</v>
+        <v>9417.75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3638,20 +3638,20 @@
         <v>58</v>
       </c>
       <c r="B3" s="12">
-        <f>7.44*SUM(欧洲交通!I2:I6)/4</f>
-        <v>725.40000000000009</v>
-      </c>
-      <c r="C3" s="28"/>
+        <f>7.34*SUM(欧洲交通!I2:I6)/4</f>
+        <v>715.65</v>
+      </c>
+      <c r="C3" s="30"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="11">
-        <f>SUM(住宿!G2:G13)/3</f>
-        <v>1461.3333333333333</v>
-      </c>
-      <c r="C4" s="28"/>
+        <f>SUM(住宿!G2:G10)/3+住宿!G11/4</f>
+        <v>1378</v>
+      </c>
+      <c r="C4" s="30"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
@@ -3661,41 +3661,41 @@
         <f>SUM(签证!B2:B14)</f>
         <v>1132</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="30"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="12">
         <v>175</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="30"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="12">
         <f>(20+15)*7.32/2</f>
         <v>128.1</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="30"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" s="12">
-        <f>SUM(体验门票等!C2:'体验门票等'!C30)</f>
-        <v>431</v>
-      </c>
-      <c r="C8" s="28"/>
+        <f>SUM(体验门票等!C1:'体验门票等'!C30)</f>
+        <v>414</v>
+      </c>
+      <c r="C8" s="30"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="28"/>
+      <c r="C9" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/预算.xlsx
+++ b/预算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="一些地址" sheetId="5" r:id="rId1"/>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">国际机票!$J$2:$J$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">住宿!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">住宿!$A$1:$B$13</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
   <si>
     <t>航班号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,15 +59,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东联系方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -242,10 +234,6 @@
     <t>22 Rue Camille Desmoulins
 巴黎, 法兰西岛（Île-de-France） 75011
 法国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://zh.airbnb.com/reservation/itinerary?code=P2QQER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -419,14 +407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B&amp;B LAFAYETTE- FLORENCE CENTER
 Via Panicale N°7,50100 Firenze
 佛罗伦萨, 托斯卡纳(Tuscany) 50123
@@ -434,10 +414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://zh.airbnb.com/reservation/receipt?code=FT8YR9·</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,6 +451,19 @@
   </si>
   <si>
     <t>巴士底集市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viale Fratelli Rosselli 61
+佛罗伦萨, 托斯卡纳(Toscana) 50144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +475,7 @@
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,14 +504,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -557,14 +538,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -620,14 +593,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -648,13 +620,13 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -669,7 +641,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -678,18 +650,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -699,18 +672,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -718,10 +679,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="着色 5" xfId="2" builtinId="45"/>
+    <cellStyle name="着色 5" xfId="1" builtinId="45"/>
   </cellStyles>
   <dxfs count="32">
     <dxf>
@@ -1634,581 +1594,581 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="30.6640625" defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="30.625" style="13"/>
+    <col min="1" max="1" width="9.77734375" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="30.6640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
     </row>
-    <row r="48" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
     </row>
-    <row r="49" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
     </row>
-    <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
     </row>
-    <row r="51" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
     </row>
-    <row r="52" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
     </row>
-    <row r="53" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
     </row>
-    <row r="54" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
     </row>
-    <row r="55" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
     </row>
-    <row r="56" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
     </row>
-    <row r="57" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
     </row>
-    <row r="58" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
     </row>
-    <row r="59" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
     </row>
-    <row r="60" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
     </row>
-    <row r="61" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
     </row>
-    <row r="62" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
     </row>
-    <row r="63" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
     </row>
-    <row r="64" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
     </row>
-    <row r="65" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
     </row>
-    <row r="66" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
     </row>
-    <row r="67" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
     </row>
-    <row r="68" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
     </row>
-    <row r="69" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
     </row>
-    <row r="70" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
     </row>
-    <row r="71" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
     </row>
-    <row r="72" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
     </row>
-    <row r="73" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
     </row>
-    <row r="74" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
     </row>
-    <row r="75" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
     </row>
-    <row r="76" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
     </row>
-    <row r="77" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
     </row>
-    <row r="78" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
     </row>
-    <row r="79" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
     </row>
-    <row r="80" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
     </row>
-    <row r="81" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
     </row>
-    <row r="82" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
     </row>
-    <row r="83" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -2231,138 +2191,138 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="20">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="18">
         <v>414</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2383,19 +2343,19 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="5" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
-    <col min="4" max="5" width="10.25" style="5" customWidth="1"/>
-    <col min="6" max="7" width="17.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="5" customWidth="1"/>
+    <col min="4" max="5" width="10.21875" style="5" customWidth="1"/>
+    <col min="6" max="7" width="17.21875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="24.77734375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -2409,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>2</v>
@@ -2418,31 +2378,31 @@
         <v>3</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="6">
         <v>1.1399999999999999</v>
@@ -2458,9 +2418,9 @@
         <v>0.11111111110949423</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="22">
+        <v>23</v>
+      </c>
+      <c r="J2" s="23">
         <v>2679</v>
       </c>
       <c r="K2" s="1"/>
@@ -2468,18 +2428,18 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="33" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6">
         <v>1.1399999999999999</v>
@@ -2495,26 +2455,26 @@
         <v>1.4305555555547471</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="22"/>
+        <v>61</v>
+      </c>
+      <c r="J3" s="23"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="6">
         <v>1.26</v>
@@ -2530,9 +2490,9 @@
         <v>4.8611111109494232E-2</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="22">
+        <v>28</v>
+      </c>
+      <c r="J4" s="23">
         <v>2796</v>
       </c>
       <c r="K4" s="1"/>
@@ -2540,18 +2500,18 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="33" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="6">
         <v>1.26</v>
@@ -2567,26 +2527,26 @@
         <v>0.50694444444525288</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="22"/>
+        <v>29</v>
+      </c>
+      <c r="J5" s="23"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="6">
         <v>1.27</v>
@@ -2602,15 +2562,15 @@
         <v>0.11111111110949423</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="23"/>
+        <v>27</v>
+      </c>
+      <c r="J6" s="24"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2626,7 +2586,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2642,7 +2602,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2658,7 +2618,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2674,7 +2634,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2690,7 +2650,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2706,7 +2666,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2722,7 +2682,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2738,7 +2698,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2754,7 +2714,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2770,7 +2730,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2786,7 +2746,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2802,7 +2762,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2818,7 +2778,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2834,7 +2794,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2850,7 +2810,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2866,7 +2826,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2882,7 +2842,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2898,7 +2858,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2914,7 +2874,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2930,7 +2890,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2946,7 +2906,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2962,7 +2922,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2978,7 +2938,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2994,7 +2954,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3010,7 +2970,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3026,7 +2986,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3063,22 +3023,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="5" customWidth="1"/>
-    <col min="4" max="6" width="14" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="22.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -3086,217 +3044,138 @@
         <v>7</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
         <v>42750</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24">
-        <v>1604</v>
-      </c>
-      <c r="F2" s="24">
-        <v>1</v>
-      </c>
-      <c r="G2" s="24">
-        <f>E2*F2</f>
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="25">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>42751</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+    </row>
+    <row r="4" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>42752</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+    </row>
+    <row r="5" spans="1:3" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>42753</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="21">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>42754</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="24">
+      <c r="B6" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="25">
         <v>890</v>
       </c>
-      <c r="F6" s="24">
-        <v>2</v>
-      </c>
-      <c r="G6" s="24">
-        <f>E6*F6</f>
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>42755</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>42756</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>42757</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="21"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>42758</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="16">
         <v>42759</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24">
+      <c r="B11" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="25">
         <v>1000</v>
       </c>
-      <c r="F11" s="25">
-        <v>1</v>
-      </c>
-      <c r="G11" s="24">
-        <f>E11*F11</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>42760</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>42761</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G14" s="18"/>
+      <c r="B13" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="20">
+        <v>-148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="21"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
+  <mergeCells count="6">
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3306,50 +3185,52 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="10.25" customWidth="1"/>
-    <col min="7" max="7" width="49.25" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="49.5" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="3">
         <v>42753.722222222219</v>
@@ -3358,13 +3239,13 @@
         <v>42753.791666666664</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H2" s="2">
         <v>4</v>
@@ -3373,12 +3254,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C3" s="3">
         <v>42757.690972222219</v>
@@ -3387,13 +3268,13 @@
         <v>42757.753472222219</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H3" s="2">
         <v>4</v>
@@ -3402,12 +3283,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="66" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C4" s="3">
         <v>42758.864583333336</v>
@@ -3416,13 +3297,13 @@
         <v>42758.916666666664</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="H4" s="2">
         <v>4</v>
@@ -3448,55 +3329,55 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="17" customWidth="1"/>
     <col min="2" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" s="17">
         <v>669</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" s="17">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B4" s="17">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" s="17">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B6" s="17">
         <v>240</v>
@@ -3520,67 +3401,67 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
     </row>
@@ -3598,104 +3479,104 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="5" customWidth="1"/>
     <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="48.6" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="12">
         <f>国际机票!J2+国际机票!J4</f>
         <v>5475</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="26">
         <f>SUM(B2:B9)</f>
-        <v>9417.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9254.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="12">
+        <f>7.4*SUM(欧洲交通!I2:I6)/4</f>
+        <v>721.5</v>
+      </c>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="11">
+        <f>(SUM(住宿!C2:C8)+住宿!C13)/3+住宿!C11/4</f>
+        <v>1209</v>
+      </c>
+      <c r="C4" s="27"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="B3" s="12">
-        <f>7.34*SUM(欧洲交通!I2:I6)/4</f>
-        <v>715.65</v>
-      </c>
-      <c r="C3" s="30"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="11">
-        <f>SUM(住宿!G2:G10)/3+住宿!G11/4</f>
-        <v>1378</v>
-      </c>
-      <c r="C4" s="30"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="B5" s="12">
         <f>SUM(签证!B2:B14)</f>
         <v>1132</v>
       </c>
-      <c r="C5" s="30"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="27"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B6" s="12">
         <v>175</v>
       </c>
-      <c r="C6" s="30"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B7" s="12">
         <f>(20+15)*7.32/2</f>
         <v>128.1</v>
       </c>
-      <c r="C7" s="30"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B8" s="12">
         <f>SUM(体验门票等!C1:'体验门票等'!C30)</f>
         <v>414</v>
       </c>
-      <c r="C8" s="30"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="30"/>
+      <c r="C9" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/预算.xlsx
+++ b/预算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="一些地址" sheetId="5" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="签证" sheetId="6" r:id="rId6"/>
     <sheet name="押金" sheetId="7" r:id="rId7"/>
     <sheet name="总表" sheetId="4" r:id="rId8"/>
+    <sheet name="金钱关系" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">国际机票!$J$2:$J$3</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="112">
   <si>
     <t>航班号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,6 +465,50 @@
   </si>
   <si>
     <t>退款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科隆香水博物馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从XX处收取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX应该</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daniel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时汇率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmx+Daniel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我给倍子221。Daniel给倍子413。倍子给Sophy383.5。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sophy给我461.Daniel给我250</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +644,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -677,6 +722,12 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1598,13 +1649,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.6640625" defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="30.6640625" style="13"/>
+    <col min="1" max="1" width="9.75" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="30.625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>41</v>
       </c>
@@ -1616,7 +1667,7 @@
       </c>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>42</v>
       </c>
@@ -1628,7 +1679,7 @@
       </c>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>42</v>
       </c>
@@ -1640,7 +1691,7 @@
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>42</v>
       </c>
@@ -1650,7 +1701,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>46</v>
       </c>
@@ -1660,7 +1711,7 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>46</v>
       </c>
@@ -1670,7 +1721,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>46</v>
       </c>
@@ -1680,7 +1731,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>46</v>
       </c>
@@ -1688,7 +1739,7 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>46</v>
       </c>
@@ -1696,7 +1747,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>46</v>
       </c>
@@ -1704,7 +1755,7 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>46</v>
       </c>
@@ -1712,7 +1763,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>46</v>
       </c>
@@ -1720,7 +1771,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>46</v>
       </c>
@@ -1728,7 +1779,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>46</v>
       </c>
@@ -1736,7 +1787,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>46</v>
       </c>
@@ -1744,7 +1795,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>46</v>
       </c>
@@ -1752,7 +1803,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>46</v>
       </c>
@@ -1760,7 +1811,7 @@
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>46</v>
       </c>
@@ -1768,7 +1819,7 @@
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -1776,7 +1827,7 @@
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>47</v>
       </c>
@@ -1784,7 +1835,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>47</v>
       </c>
@@ -1792,7 +1843,7 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -1800,7 +1851,7 @@
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>47</v>
       </c>
@@ -1808,7 +1859,7 @@
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>47</v>
       </c>
@@ -1816,7 +1867,7 @@
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>47</v>
       </c>
@@ -1824,7 +1875,7 @@
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>47</v>
       </c>
@@ -1832,343 +1883,343 @@
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
     </row>
-    <row r="48" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
     </row>
-    <row r="49" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
     </row>
-    <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
     </row>
-    <row r="51" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
     </row>
-    <row r="52" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
     </row>
-    <row r="53" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
     </row>
-    <row r="54" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
     </row>
-    <row r="55" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
     </row>
-    <row r="56" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
     </row>
-    <row r="57" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
     </row>
-    <row r="58" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
     </row>
-    <row r="59" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
     </row>
-    <row r="60" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
     </row>
-    <row r="61" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
     </row>
-    <row r="62" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
     </row>
-    <row r="63" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
     </row>
-    <row r="64" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
     </row>
-    <row r="65" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
     </row>
-    <row r="66" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
     </row>
-    <row r="67" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
     </row>
-    <row r="68" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
     </row>
-    <row r="69" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
     </row>
-    <row r="70" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
     </row>
-    <row r="71" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
     </row>
-    <row r="72" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
     </row>
-    <row r="73" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
     </row>
-    <row r="74" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
     </row>
-    <row r="75" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
     </row>
-    <row r="76" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
     </row>
-    <row r="77" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
     </row>
-    <row r="78" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
     </row>
-    <row r="79" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
     </row>
-    <row r="80" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
     </row>
-    <row r="81" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
     </row>
-    <row r="82" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
     </row>
-    <row r="83" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -2188,16 +2239,16 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>88</v>
       </c>
@@ -2208,7 +2259,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>91</v>
       </c>
@@ -2219,107 +2270,112 @@
         <v>414</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+    <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="19">
+        <f>5*7.31</f>
+        <v>36.549999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -2343,19 +2399,19 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="5" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
-    <col min="4" max="5" width="10.21875" style="5" customWidth="1"/>
-    <col min="6" max="7" width="17.21875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="24.77734375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="10.25" style="5" customWidth="1"/>
+    <col min="6" max="7" width="17.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="24.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -2391,7 +2447,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -2428,7 +2484,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="33" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
@@ -2463,7 +2519,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -2500,7 +2556,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="33" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
@@ -2535,7 +2591,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="33" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
@@ -2570,7 +2626,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2586,7 +2642,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2602,7 +2658,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2618,7 +2674,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2634,7 +2690,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2650,7 +2706,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2666,7 +2722,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2682,7 +2738,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2698,7 +2754,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2714,7 +2770,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2730,7 +2786,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2746,7 +2802,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2762,7 +2818,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2778,7 +2834,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2794,7 +2850,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2810,7 +2866,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2826,7 +2882,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2842,7 +2898,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2858,7 +2914,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2874,7 +2930,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2890,7 +2946,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2906,7 +2962,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2922,7 +2978,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2938,7 +2994,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2954,7 +3010,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2970,7 +3026,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2986,7 +3042,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3025,18 +3081,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="5" customWidth="1"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -3047,7 +3103,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>42750</v>
       </c>
@@ -3058,21 +3114,21 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>42751</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
     </row>
-    <row r="4" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>42752</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
     </row>
-    <row r="5" spans="1:3" ht="46.8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>42753</v>
       </c>
@@ -3083,7 +3139,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>42754</v>
       </c>
@@ -3094,33 +3150,33 @@
         <v>890</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>42755</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>42756</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>42757</v>
       </c>
       <c r="B9" s="21"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>42758</v>
       </c>
       <c r="B10" s="14"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>42759</v>
       </c>
@@ -3131,14 +3187,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>42760</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>42761</v>
       </c>
@@ -3146,20 +3202,20 @@
         <v>100</v>
       </c>
       <c r="C13" s="20">
-        <v>-148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="21"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="21"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="21"/>
     </row>
   </sheetData>
@@ -3188,15 +3244,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
-    <col min="5" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="6" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3225,7 +3281,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="66" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -3254,7 +3310,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>71</v>
       </c>
@@ -3283,7 +3339,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="66" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>74</v>
       </c>
@@ -3329,13 +3385,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="18.125" style="17" customWidth="1"/>
     <col min="2" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>53</v>
       </c>
@@ -3343,7 +3399,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>62</v>
       </c>
@@ -3351,7 +3407,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>63</v>
       </c>
@@ -3359,7 +3415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>64</v>
       </c>
@@ -3367,7 +3423,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>65</v>
       </c>
@@ -3375,7 +3431,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>67</v>
       </c>
@@ -3401,9 +3457,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>69</v>
       </c>
@@ -3411,7 +3467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>68</v>
       </c>
@@ -3419,49 +3475,49 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
     </row>
@@ -3479,18 +3535,18 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="5" customWidth="1"/>
     <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="48.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>53</v>
       </c>
@@ -3501,7 +3557,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>54</v>
       </c>
@@ -3511,10 +3567,10 @@
       </c>
       <c r="C2" s="26">
         <f>SUM(B2:B9)</f>
-        <v>9254.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9340.4833333333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>55</v>
       </c>
@@ -3524,17 +3580,17 @@
       </c>
       <c r="C3" s="27"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="11">
         <f>(SUM(住宿!C2:C8)+住宿!C13)/3+住宿!C11/4</f>
-        <v>1209</v>
+        <v>1258.3333333333335</v>
       </c>
       <c r="C4" s="27"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>58</v>
       </c>
@@ -3544,7 +3600,7 @@
       </c>
       <c r="C5" s="27"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>68</v>
       </c>
@@ -3553,7 +3609,7 @@
       </c>
       <c r="C6" s="27"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>86</v>
       </c>
@@ -3563,17 +3619,17 @@
       </c>
       <c r="C7" s="27"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="12">
         <f>SUM(体验门票等!C1:'体验门票等'!C30)</f>
-        <v>414</v>
+        <v>450.55</v>
       </c>
       <c r="C8" s="27"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="27"/>
@@ -3589,4 +3645,237 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="28"/>
+      <c r="B1" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="29"/>
+      <c r="B3" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28">
+        <f>455/3</f>
+        <v>151.66666666666666</v>
+      </c>
+      <c r="E3" s="28">
+        <f>总表!B4</f>
+        <v>1258.3333333333335</v>
+      </c>
+      <c r="F3" s="28">
+        <f>住宿!C11/4</f>
+        <v>250</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
+      <c r="B4" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="28">
+        <f>51*B6</f>
+        <v>372.81</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28">
+        <f>56.5*B6</f>
+        <v>413.01499999999999</v>
+      </c>
+      <c r="F4" s="28">
+        <f>56.5*B6</f>
+        <v>413.01499999999999</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="28">
+        <f>109*B6</f>
+        <v>796.79</v>
+      </c>
+      <c r="D5" s="28">
+        <f>C5</f>
+        <v>796.79</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="28">
+        <v>7.31</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="29"/>
+      <c r="B9" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28">
+        <f>D3-C4</f>
+        <v>-221.14333333333335</v>
+      </c>
+      <c r="E9" s="28">
+        <f>E3-C5</f>
+        <v>461.54333333333352</v>
+      </c>
+      <c r="F9" s="28">
+        <f>住宿!C11/4</f>
+        <v>250</v>
+      </c>
+      <c r="G9" s="5">
+        <f>E9+F9</f>
+        <v>711.54333333333352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="B10" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="28">
+        <f>C4-D3</f>
+        <v>221.14333333333335</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28">
+        <f>E4-D5</f>
+        <v>-383.77499999999998</v>
+      </c>
+      <c r="F10" s="28">
+        <f>F4</f>
+        <v>413.01499999999999</v>
+      </c>
+      <c r="G10" s="5">
+        <f>E10+F10</f>
+        <v>29.240000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="29"/>
+      <c r="B11" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="28">
+        <f>C5-E3</f>
+        <v>-461.54333333333352</v>
+      </c>
+      <c r="D11" s="28">
+        <f>D5-E4</f>
+        <v>383.77499999999998</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28">
+        <f>F9+F10</f>
+        <v>663.01499999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="28"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/预算.xlsx
+++ b/预算.xlsx
@@ -708,6 +708,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -722,9 +725,6 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2476,7 +2476,7 @@
       <c r="I2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="24">
         <v>2679</v>
       </c>
       <c r="K2" s="1"/>
@@ -2513,7 +2513,7 @@
       <c r="I3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2548,7 +2548,7 @@
       <c r="I4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="24">
         <v>2796</v>
       </c>
       <c r="K4" s="1"/>
@@ -2585,7 +2585,7 @@
       <c r="I5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2620,7 +2620,7 @@
       <c r="I6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="24"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -3107,10 +3107,10 @@
       <c r="A2" s="16">
         <v>42750</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="26">
         <v>1680</v>
       </c>
     </row>
@@ -3118,15 +3118,15 @@
       <c r="A3" s="16">
         <v>42751</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>42752</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
@@ -3143,10 +3143,10 @@
       <c r="A6" s="16">
         <v>42754</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="26">
         <v>890</v>
       </c>
     </row>
@@ -3154,15 +3154,15 @@
       <c r="A7" s="16">
         <v>42755</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>42756</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
@@ -3180,10 +3180,10 @@
       <c r="A11" s="16">
         <v>42759</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="26">
         <v>1000</v>
       </c>
     </row>
@@ -3191,8 +3191,8 @@
       <c r="A12" s="16">
         <v>42760</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
@@ -3565,7 +3565,7 @@
         <f>国际机票!J2+国际机票!J4</f>
         <v>5475</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="27">
         <f>SUM(B2:B9)</f>
         <v>9340.4833333333336</v>
       </c>
@@ -3578,7 +3578,7 @@
         <f>7.4*SUM(欧洲交通!I2:I6)/4</f>
         <v>721.5</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
@@ -3588,7 +3588,7 @@
         <f>(SUM(住宿!C2:C8)+住宿!C13)/3+住宿!C11/4</f>
         <v>1258.3333333333335</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
@@ -3598,7 +3598,7 @@
         <f>SUM(签证!B2:B14)</f>
         <v>1132</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="28"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
@@ -3607,7 +3607,7 @@
       <c r="B6" s="12">
         <v>175</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
@@ -3617,7 +3617,7 @@
         <f>(20+15)*7.32/2</f>
         <v>128.1</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
@@ -3627,12 +3627,12 @@
         <f>SUM(体验门票等!C1:'体验门票等'!C30)</f>
         <v>450.55</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="28"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="27"/>
+      <c r="C9" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3661,50 +3661,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="28"/>
+      <c r="A1" s="23"/>
       <c r="B1" s="29" t="s">
         <v>105</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
-      <c r="F1" s="28"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="23" t="s">
         <v>107</v>
       </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23">
         <f>455/3</f>
         <v>151.66666666666666</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="23">
         <f>总表!B4</f>
         <v>1258.3333333333335</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="23">
         <f>住宿!C11/4</f>
         <v>250</v>
       </c>
@@ -3712,19 +3712,19 @@
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="23">
         <f>51*B6</f>
         <v>372.81</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23">
         <f>56.5*B6</f>
         <v>413.01499999999999</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="23">
         <f>56.5*B6</f>
         <v>413.01499999999999</v>
       </c>
@@ -3732,60 +3732,60 @@
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="23">
         <f>109*B6</f>
         <v>796.79</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="23">
         <f>C5</f>
         <v>796.79</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="23">
         <v>7.31</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="29" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
-      <c r="F7" s="28"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="23" t="s">
         <v>107</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -3794,19 +3794,19 @@
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="29"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23">
         <f>D3-C4</f>
         <v>-221.14333333333335</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="23">
         <f>E3-C5</f>
         <v>461.54333333333352</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="23">
         <f>住宿!C11/4</f>
         <v>250</v>
       </c>
@@ -3817,19 +3817,19 @@
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="23">
         <f>C4-D3</f>
         <v>221.14333333333335</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28">
+      <c r="D10" s="23"/>
+      <c r="E10" s="23">
         <f>E4-D5</f>
         <v>-383.77499999999998</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="23">
         <f>F4</f>
         <v>413.01499999999999</v>
       </c>
@@ -3840,28 +3840,28 @@
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="29"/>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="23">
         <f>C5-E3</f>
         <v>-461.54333333333352</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="23">
         <f>D5-E4</f>
         <v>383.77499999999998</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23">
         <f>F9+F10</f>
         <v>663.01499999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="28"/>
+      <c r="B12" s="23"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="23" t="s">
         <v>110</v>
       </c>
       <c r="E13" t="s">

--- a/预算.xlsx
+++ b/预算.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="115">
   <si>
     <t>航班号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -500,15 +500,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hmx+Daniel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我给倍子221。Daniel给倍子413。倍子给Sophy383.5。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sophy给我461.Daniel给我250</t>
+    <t>HMX+D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX应该</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从XX处收取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +532,7 @@
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,6 +599,20 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -644,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -711,6 +737,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -728,6 +757,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2476,7 +2517,7 @@
       <c r="I2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="25">
         <v>2679</v>
       </c>
       <c r="K2" s="1"/>
@@ -2513,7 +2554,7 @@
       <c r="I3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="24"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2548,7 +2589,7 @@
       <c r="I4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="25">
         <v>2796</v>
       </c>
       <c r="K4" s="1"/>
@@ -2585,7 +2626,7 @@
       <c r="I5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2620,7 +2661,7 @@
       <c r="I6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="25"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -3082,7 +3123,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3107,10 +3148,10 @@
       <c r="A2" s="16">
         <v>42750</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="27">
         <v>1680</v>
       </c>
     </row>
@@ -3118,15 +3159,15 @@
       <c r="A3" s="16">
         <v>42751</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>42752</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
@@ -3143,10 +3184,10 @@
       <c r="A6" s="16">
         <v>42754</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="27">
         <v>890</v>
       </c>
     </row>
@@ -3154,15 +3195,15 @@
       <c r="A7" s="16">
         <v>42755</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>42756</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
@@ -3180,10 +3221,10 @@
       <c r="A11" s="16">
         <v>42759</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="27">
         <v>1000</v>
       </c>
     </row>
@@ -3191,8 +3232,8 @@
       <c r="A12" s="16">
         <v>42760</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
@@ -3202,7 +3243,7 @@
         <v>100</v>
       </c>
       <c r="C13" s="20">
-        <v>0</v>
+        <v>-389</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3241,7 +3282,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3535,7 +3576,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3565,9 +3606,9 @@
         <f>国际机票!J2+国际机票!J4</f>
         <v>5475</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="28">
         <f>SUM(B2:B9)</f>
-        <v>9340.4833333333336</v>
+        <v>9210.8166666666657</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3578,17 +3619,17 @@
         <f>7.4*SUM(欧洲交通!I2:I6)/4</f>
         <v>721.5</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="11">
-        <f>(SUM(住宿!C2:C8)+住宿!C13)/3+住宿!C11/4</f>
-        <v>1258.3333333333335</v>
-      </c>
-      <c r="C4" s="28"/>
+        <f>(SUM(住宿!C2:'住宿'!C8)+住宿!C13)/3+住宿!C11/4</f>
+        <v>1128.6666666666665</v>
+      </c>
+      <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
@@ -3598,7 +3639,7 @@
         <f>SUM(签证!B2:B14)</f>
         <v>1132</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
@@ -3607,7 +3648,7 @@
       <c r="B6" s="12">
         <v>175</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
@@ -3617,7 +3658,7 @@
         <f>(20+15)*7.32/2</f>
         <v>128.1</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
@@ -3627,12 +3668,12 @@
         <f>SUM(体验门票等!C1:'体验门票等'!C30)</f>
         <v>450.55</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="28"/>
+      <c r="C9" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3649,231 +3690,315 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="23"/>
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F3" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="23" t="s">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23">
-        <f>455/3</f>
-        <v>151.66666666666666</v>
-      </c>
-      <c r="E3" s="23">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23">
+        <f>(455+住宿!C13)/3</f>
+        <v>22</v>
+      </c>
+      <c r="E4" s="23">
         <f>总表!B4</f>
-        <v>1258.3333333333335</v>
-      </c>
-      <c r="F3" s="23">
+        <v>1128.6666666666665</v>
+      </c>
+      <c r="F4" s="23">
         <f>住宿!C11/4</f>
         <v>250</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="23" t="s">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="23">
-        <f>51*B6</f>
-        <v>372.81</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23">
-        <f>56.5*B6</f>
-        <v>413.01499999999999</v>
-      </c>
-      <c r="F4" s="23">
-        <f>56.5*B6</f>
-        <v>413.01499999999999</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="23" t="s">
+      <c r="C5" s="23">
+        <f>55.75*B7</f>
+        <v>407.53249999999997</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23">
+        <f>62*B7+415</f>
+        <v>868.22</v>
+      </c>
+      <c r="F5" s="23">
+        <f>23*B7</f>
+        <v>168.13</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="23">
-        <f>109*B6</f>
+      <c r="C6" s="23">
+        <f>109*B7</f>
         <v>796.79</v>
       </c>
-      <c r="D5" s="23">
-        <f>C5</f>
+      <c r="D6" s="23">
+        <f>C6</f>
         <v>796.79</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23">
+        <f>SUM(F4:F5)</f>
+        <v>418.13</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B7" s="23">
         <v>7.31</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23">
+        <v>22</v>
+      </c>
+      <c r="E12" s="23">
+        <f>E4+F4</f>
+        <v>1378.6666666666665</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="23">
+        <f>C5</f>
+        <v>407.53249999999997</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23">
+        <f>E5+F5</f>
+        <v>1036.3499999999999</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="30"/>
+      <c r="B14" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="24">
+        <f>C6</f>
+        <v>796.79</v>
+      </c>
+      <c r="D14" s="24">
+        <f>C14</f>
+        <v>796.79</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23" t="s">
+      <c r="B17" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="30"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D18" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E18" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="30"/>
+      <c r="B19" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24">
+        <f>E12-C14</f>
+        <v>581.87666666666655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="30"/>
+      <c r="B20" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="24">
+        <f>C13-D12</f>
+        <v>385.53249999999997</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24">
+        <f>E13-D14</f>
+        <v>239.55999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="30"/>
+      <c r="B21" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23">
-        <f>D3-C4</f>
-        <v>-221.14333333333335</v>
-      </c>
-      <c r="E9" s="23">
-        <f>E3-C5</f>
-        <v>461.54333333333352</v>
-      </c>
-      <c r="F9" s="23">
-        <f>住宿!C11/4</f>
-        <v>250</v>
-      </c>
-      <c r="G9" s="5">
-        <f>E9+F9</f>
-        <v>711.54333333333352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="23">
-        <f>C4-D3</f>
-        <v>221.14333333333335</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23">
-        <f>E4-D5</f>
-        <v>-383.77499999999998</v>
-      </c>
-      <c r="F10" s="23">
-        <f>F4</f>
-        <v>413.01499999999999</v>
-      </c>
-      <c r="G10" s="5">
-        <f>E10+F10</f>
-        <v>29.240000000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="29"/>
-      <c r="B11" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="23">
-        <f>C5-E3</f>
-        <v>-461.54333333333352</v>
-      </c>
-      <c r="D11" s="23">
-        <f>D5-E4</f>
-        <v>383.77499999999998</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23">
-        <f>F9+F10</f>
-        <v>663.01499999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="23"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" t="s">
-        <v>111</v>
-      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A8:A11"/>
+  <mergeCells count="9">
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/预算.xlsx
+++ b/预算.xlsx
@@ -755,19 +755,19 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3692,7 +3692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -3703,29 +3703,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
       <c r="F2" s="23"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23" t="s">
         <v>102</v>
@@ -3742,7 +3742,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="23" t="s">
         <v>102</v>
       </c>
@@ -3762,7 +3762,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="23" t="s">
         <v>103</v>
       </c>
@@ -3782,7 +3782,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="23" t="s">
         <v>104</v>
       </c>
@@ -3824,31 +3824,31 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="24"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="23"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23" t="s">
         <v>102</v>
@@ -3863,7 +3863,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="23" t="s">
         <v>102</v>
       </c>
@@ -3879,7 +3879,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="23" t="s">
         <v>103</v>
       </c>
@@ -3896,7 +3896,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="23" t="s">
         <v>104</v>
       </c>
@@ -3920,27 +3920,27 @@
       <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24" t="s">
         <v>102</v>
@@ -3953,7 +3953,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="30"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="24" t="s">
         <v>102</v>
       </c>
@@ -3965,7 +3965,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="30"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="24" t="s">
         <v>103</v>
       </c>
@@ -3980,7 +3980,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="30"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="24" t="s">
         <v>104</v>
       </c>
@@ -3990,15 +3990,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
